--- a/Design-Data.xlsx
+++ b/Design-Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Acad\research\fafar\RSO\nd_code\Day-Night-Classification-master\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\theises\MC\case study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADE8E6C-14DE-4D34-8395-D1466BACCCAF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>hidden-dim</t>
   </si>
@@ -39,22 +38,16 @@
     <t>weightdecay</t>
   </si>
   <si>
-    <t>Point</t>
+    <t>سهم عکس روز</t>
   </si>
   <si>
-    <t>day prec</t>
-  </si>
-  <si>
-    <t>data ave</t>
-  </si>
-  <si>
-    <t>data std</t>
+    <t>Point</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,25 +358,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -398,1410 +390,1404 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.15962877552424301</v>
+        <v>5.4385663158768097E-2</v>
       </c>
       <c r="C2">
-        <v>2.41893098328935E-2</v>
+        <v>1.7742868225811399E-2</v>
       </c>
       <c r="D2">
-        <v>0.28044664906290101</v>
+        <v>0.80418525474973102</v>
       </c>
       <c r="E2">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="F2">
         <v>0.53551802836336704</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.34747979536103601</v>
+        <v>6.7186721823320097E-2</v>
       </c>
       <c r="C3">
-        <v>4.1994195298195501E-2</v>
+        <v>9.6022518726563796E-2</v>
       </c>
       <c r="D3">
-        <v>0.22136584539038601</v>
+        <v>6.9767690232591495E-2</v>
       </c>
       <c r="E3">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F3">
         <v>0.242609293153078</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.68275170059500501</v>
+        <v>6.09168686753635E-2</v>
       </c>
       <c r="C4">
-        <v>2.1505280765846901E-2</v>
+        <v>6.0577769357176903E-2</v>
       </c>
       <c r="D4">
-        <v>0.234005224644036</v>
+        <v>0.35400492519572202</v>
       </c>
       <c r="E4">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>0.37864079352237201</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.48117512078424302</v>
+        <v>9.05092271668195E-2</v>
       </c>
       <c r="C5">
-        <v>5.9751551355610097E-2</v>
+        <v>9.0225006272090194E-2</v>
       </c>
       <c r="D5">
-        <v>0.14273875187635299</v>
+        <v>0.45288329435373698</v>
       </c>
       <c r="E5">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="F5">
         <v>0.38981846655976199</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5.5240719325053297E-2</v>
+        <v>8.4190227846623597E-2</v>
       </c>
       <c r="C6">
-        <v>4.0111181928816499E-2</v>
+        <v>4.1533662747287398E-2</v>
       </c>
       <c r="D6">
-        <v>0.85519255846059505</v>
+        <v>0.44925188996882398</v>
       </c>
       <c r="E6">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <v>0.30629771116784299</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.26184362607358402</v>
+        <v>1.11404411354057E-2</v>
       </c>
       <c r="C7">
-        <v>4.5317331418422202E-2</v>
+        <v>6.4827670416790495E-2</v>
       </c>
       <c r="D7">
-        <v>0.83295630313698299</v>
+        <v>0.67571602155685295</v>
       </c>
       <c r="E7">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>0.680675089516803</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.84898735192069097</v>
+        <v>1.7094571590869901E-2</v>
       </c>
       <c r="C8">
-        <v>5.7698446738017398E-2</v>
+        <v>1.1959970575043E-2</v>
       </c>
       <c r="D8">
-        <v>0.78150912045548104</v>
+        <v>0.121853629669219</v>
       </c>
       <c r="E8">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="F8">
         <v>0.66127954682557</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.6155923309202501E-2</v>
+        <v>2.5051268032439199E-2</v>
       </c>
       <c r="C9">
-        <v>2.21621494533525E-2</v>
+        <v>9.3994400262207095E-2</v>
       </c>
       <c r="D9">
-        <v>0.72614896805347096</v>
+        <v>0.31966760440835301</v>
       </c>
       <c r="E9">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="F9">
         <v>0.26536677556007798</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.89789165284865802</v>
+        <v>7.6930740410013798E-2</v>
       </c>
       <c r="C10">
-        <v>6.6016024928898603E-2</v>
+        <v>6.7909027603865094E-2</v>
       </c>
       <c r="D10">
-        <v>0.15816947673456</v>
+        <v>5.9916314024640203E-3</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F10">
         <v>0.53980698914640601</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9.3207929178996105E-2</v>
+        <v>2.0020417442154201E-2</v>
       </c>
       <c r="C11">
-        <v>8.1302285301867602E-2</v>
+        <v>1.7599748801491798E-2</v>
       </c>
       <c r="D11">
-        <v>0.36897910188209398</v>
+        <v>0.83511863083928395</v>
       </c>
       <c r="E11">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="F11">
         <v>0.34966648262476102</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.74417252377881704</v>
+        <v>9.6533114797821507E-2</v>
       </c>
       <c r="C12">
-        <v>3.8655466678270599E-2</v>
+        <v>7.4545759694482405E-2</v>
       </c>
       <c r="D12">
-        <v>0.18771932354724299</v>
+        <v>0.63574887819057302</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="F12">
         <v>0.473570179851383</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.49211686421477802</v>
+        <v>7.2923604906056094E-2</v>
       </c>
       <c r="C13">
-        <v>8.7121418226219702E-2</v>
+        <v>4.0097574040676001E-2</v>
       </c>
       <c r="D13">
-        <v>5.6321133968968403E-3</v>
+        <v>0.61948188732937104</v>
       </c>
       <c r="E13">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F13">
         <v>0.50728887305975401</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.25667972052355797</v>
+        <v>1.3259750558833199E-2</v>
       </c>
       <c r="C14">
-        <v>1.9255958865925599E-2</v>
+        <v>1.52557470302473E-2</v>
       </c>
       <c r="D14">
-        <v>0.32313306998943903</v>
+        <v>0.135853519281634</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="F14">
         <v>0.75295623459796102</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.62780568017419602</v>
+        <v>8.2029094824010704E-2</v>
       </c>
       <c r="C15">
-        <v>5.4816773725098002E-2</v>
+        <v>2.7869976590001601E-2</v>
       </c>
       <c r="D15">
-        <v>0.69243923222960901</v>
+        <v>0.34211880894277702</v>
       </c>
       <c r="E15">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="F15">
         <v>0.55889750370545799</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.188507211743906</v>
+        <v>8.6372423026242803E-2</v>
       </c>
       <c r="C16">
-        <v>1.1956247106267699E-2</v>
+        <v>3.14800497447566E-2</v>
       </c>
       <c r="D16">
-        <v>0.59542348245219201</v>
+        <v>0.17888568117374501</v>
       </c>
       <c r="E16">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F16">
         <v>0.396436679817948</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.76498270941492996</v>
+        <v>9.1850184789364395E-2</v>
       </c>
       <c r="C17">
-        <v>3.5384068830340502E-2</v>
+        <v>3.0505100878792098E-2</v>
       </c>
       <c r="D17">
-        <v>0.53298018214718601</v>
+        <v>0.39876538248063798</v>
       </c>
       <c r="E17">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="F17">
         <v>0.63026422487469302</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.69453667995574797</v>
+        <v>5.9996816599410301E-2</v>
       </c>
       <c r="C18">
-        <v>1.08111678286538E-2</v>
+        <v>7.6208978053517104E-2</v>
       </c>
       <c r="D18">
-        <v>0.47062091742127099</v>
+        <v>0.65911076943717295</v>
       </c>
       <c r="E18">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="F18">
         <v>0.63698086464502701</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6.0157345610676399E-2</v>
+        <v>5.7457803532488097E-2</v>
       </c>
       <c r="C19">
-        <v>3.22920165399588E-2</v>
+        <v>8.1012088318987402E-2</v>
       </c>
       <c r="D19">
-        <v>0.31071522483449499</v>
+        <v>0.50449000705553404</v>
       </c>
       <c r="E19">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="F19">
         <v>0.52205950746607399</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>8.0519382476698598E-2</v>
+        <v>1.43987615893883E-2</v>
       </c>
       <c r="C20">
-        <v>2.6496217239844501E-2</v>
+        <v>5.5921875944867597E-2</v>
       </c>
       <c r="D20">
-        <v>0.49682352102737398</v>
+        <v>0.57515847886598204</v>
       </c>
       <c r="E20">
-        <v>196</v>
+        <v>92</v>
       </c>
       <c r="F20">
         <v>0.81511187834113297</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.22097421983572099</v>
+        <v>4.8564721674532997E-2</v>
       </c>
       <c r="C21">
-        <v>4.4355849116578402E-2</v>
+        <v>5.7281679683978702E-2</v>
       </c>
       <c r="D21">
-        <v>0.75643001911125296</v>
+        <v>0.538920416218997</v>
       </c>
       <c r="E21">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="F21">
         <v>0.47340761054584402</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>3.2700291579797099E-2</v>
+        <v>5.5969220171668402E-2</v>
       </c>
       <c r="C22">
-        <v>2.9030857692767899E-2</v>
+        <v>6.6145484745195701E-2</v>
       </c>
       <c r="D22">
-        <v>0.76343761587560299</v>
+        <v>0.59979703748202595</v>
       </c>
       <c r="E22">
-        <v>198</v>
+        <v>51</v>
       </c>
       <c r="F22">
         <v>0.42715634866873198</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.41612760281099098</v>
+        <v>8.9129155222270294E-3</v>
       </c>
       <c r="C23">
-        <v>2.3892050885777401E-2</v>
+        <v>9.9417248262475097E-2</v>
       </c>
       <c r="D23">
-        <v>0.54522890716675998</v>
+        <v>0.70955463604562796</v>
       </c>
       <c r="E23">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="F23">
         <v>0.58647141044467499</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.82387762393177</v>
+        <v>4.5723804026201201E-2</v>
       </c>
       <c r="C24">
-        <v>7.5151206166407206E-2</v>
+        <v>6.6909076893766906E-2</v>
       </c>
       <c r="D24">
-        <v>0.74167400720458598</v>
+        <v>0.49106061218318098</v>
       </c>
       <c r="E24">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="F24">
         <v>0.30121086120877999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.70500126393975004</v>
+        <v>5.3965099561784302E-2</v>
       </c>
       <c r="C25">
-        <v>9.1153851322369597E-2</v>
+        <v>6.2058718443953102E-2</v>
       </c>
       <c r="D25">
-        <v>0.60714477401362199</v>
+        <v>0.22362786617213601</v>
       </c>
       <c r="E25">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F25">
         <v>0.43462563432344498</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.55750676571941005</v>
+        <v>1.8694499640037401E-2</v>
       </c>
       <c r="C26">
-        <v>9.6822869030693995E-2</v>
+        <v>9.3079624610474199E-2</v>
       </c>
       <c r="D26">
-        <v>9.0906705786947595E-2</v>
+        <v>0.46385477373826101</v>
       </c>
       <c r="E26">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F26">
         <v>0.41448176441284001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.913201334262564</v>
+        <v>6.6229092706298301E-2</v>
       </c>
       <c r="C27">
-        <v>3.6480610807208803E-2</v>
+        <v>5.8978664435482102E-2</v>
       </c>
       <c r="D27">
-        <v>0.502115723333171</v>
+        <v>0.18153052878432299</v>
       </c>
       <c r="E27">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="F27">
         <v>0.70766908107877902</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.120194238615841</v>
+        <v>2.7164147843462601E-3</v>
       </c>
       <c r="C28">
-        <v>6.5055273816027007E-2</v>
+        <v>3.4473240037038902E-2</v>
       </c>
       <c r="D28">
-        <v>0.35896848269952603</v>
+        <v>0.78296690223356802</v>
       </c>
       <c r="E28">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="F28">
         <v>0.61131180143758401</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.93694510915845197</v>
+        <v>3.1052379860542399E-2</v>
       </c>
       <c r="C29">
-        <v>5.2468525004953498E-2</v>
+        <v>9.7906513403861098E-2</v>
       </c>
       <c r="D29">
-        <v>7.5074515839719302E-2</v>
+        <v>9.5416994044945705E-2</v>
       </c>
       <c r="E29">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="F29">
         <v>0.59600818017088197</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.15273509521282899</v>
+        <v>5.1770760885481298E-2</v>
       </c>
       <c r="C30">
-        <v>6.7333271194253794E-2</v>
+        <v>4.5830245638500799E-2</v>
       </c>
       <c r="D30">
-        <v>0.12912506303534699</v>
+        <v>0.32873938796486002</v>
       </c>
       <c r="E30">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="F30">
         <v>0.64353585493019705</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.55337826566876602</v>
+        <v>3.1713243422057197E-2</v>
       </c>
       <c r="C31">
-        <v>4.2342801918807002E-2</v>
+        <v>6.3205040570720294E-2</v>
       </c>
       <c r="D31">
-        <v>0.21152740118926799</v>
+        <v>0.48817425568482498</v>
       </c>
       <c r="E31">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F31">
         <v>0.64048568522323601</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.203454161751178</v>
+        <v>6.4140367753854094E-2</v>
       </c>
       <c r="C32">
-        <v>1.8208867732260301E-2</v>
+        <v>7.8936117009059698E-2</v>
       </c>
       <c r="D32">
-        <v>0.65456260600232596</v>
+        <v>0.361912909546382</v>
       </c>
       <c r="E32">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="F32">
         <v>0.50522078922496305</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.600072342443287</v>
+        <v>3.6478125999406801E-2</v>
       </c>
       <c r="C33">
-        <v>6.2230071471100802E-2</v>
+        <v>7.1725608038840094E-2</v>
       </c>
       <c r="D33">
-        <v>0.44526705574881897</v>
+        <v>0.64959985877265203</v>
       </c>
       <c r="E33">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="F33">
         <v>0.28558038890874399</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1.1630291736758201E-2</v>
+        <v>6.8392285932827399E-3</v>
       </c>
       <c r="C34">
-        <v>2.6872194893709501E-2</v>
+        <v>2.5059793491023899E-2</v>
       </c>
       <c r="D34">
-        <v>0.670317356440156</v>
+        <v>0.414908545963658</v>
       </c>
       <c r="E34">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="F34">
         <v>0.250682335564891</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.80312846489882705</v>
+        <v>8.7254549091782804E-2</v>
       </c>
       <c r="C35">
-        <v>1.41337611649218E-2</v>
+        <v>1.29491824476708E-2</v>
       </c>
       <c r="D35">
-        <v>0.25081755190069399</v>
+        <v>0.28276763365354102</v>
       </c>
       <c r="E35">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="F35">
         <v>0.50602877544879499</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.88291834252790102</v>
+        <v>6.9545442000352897E-2</v>
       </c>
       <c r="C36">
-        <v>9.8116487350024206E-2</v>
+        <v>3.2454735274635903E-2</v>
       </c>
       <c r="D36">
-        <v>2.19466604862322E-2</v>
+        <v>0.58840072484358996</v>
       </c>
       <c r="E36">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="F36">
         <v>0.747097856763417</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.94296687072013996</v>
+        <v>7.02064884937144E-2</v>
       </c>
       <c r="C37">
-        <v>6.0382029665516E-2</v>
+        <v>8.8180157236095902E-2</v>
       </c>
       <c r="D37">
-        <v>0.52488138516358296</v>
+        <v>0.14675269482195</v>
       </c>
       <c r="E37">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="F37">
         <v>0.63020633445822205</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.98853923504073504</v>
+        <v>7.2488684738588105E-2</v>
       </c>
       <c r="C38">
-        <v>9.8844857537911293E-2</v>
+        <v>5.7970726298811802E-2</v>
       </c>
       <c r="D38">
-        <v>0.290722742777209</v>
+        <v>0.55152700120722398</v>
       </c>
       <c r="E38">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F38">
         <v>0.66241453662852501</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.50823025046234005</v>
+        <v>7.4462464090839495E-2</v>
       </c>
       <c r="C39">
-        <v>8.4019550444566701E-2</v>
+        <v>4.7220843567354599E-2</v>
       </c>
       <c r="D39">
-        <v>0.83634828084562696</v>
+        <v>0.51935639117992205</v>
       </c>
       <c r="E39">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="F39">
         <v>0.76347551890489695</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.28959476315124699</v>
+        <v>8.1161501728474902E-2</v>
       </c>
       <c r="C40">
-        <v>1.3427290746200001E-2</v>
+        <v>4.3191441851243698E-2</v>
       </c>
       <c r="D40">
-        <v>0.80850715287047703</v>
+        <v>0.29144194510891303</v>
       </c>
       <c r="E40">
-        <v>182</v>
+        <v>47</v>
       </c>
       <c r="F40">
         <v>0.42306886879537697</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.13574644858588999</v>
+        <v>4.8920545831477001E-2</v>
       </c>
       <c r="C41">
-        <v>7.8661453722856101E-2</v>
+        <v>8.4512725012671902E-2</v>
       </c>
       <c r="D41">
-        <v>0.41876834059950901</v>
+        <v>0.23518053407169201</v>
       </c>
       <c r="E41">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="F41">
         <v>0.39995960583495799</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.51701925461005205</v>
+        <v>8.5353055268825792E-3</v>
       </c>
       <c r="C42">
-        <v>7.9554583245948704E-2</v>
+        <v>6.9290660925947004E-2</v>
       </c>
       <c r="D42">
-        <v>2.85235743046258E-2</v>
+        <v>0.198100411453452</v>
       </c>
       <c r="E42">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F42">
         <v>0.67030667518419396</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.65205335188011904</v>
+        <v>3.7660035824046798E-2</v>
       </c>
       <c r="C43">
-        <v>7.7240200279394697E-2</v>
+        <v>7.0634550075402397E-2</v>
       </c>
       <c r="D43">
-        <v>0.64258559951516203</v>
+        <v>0.16305773329015699</v>
       </c>
       <c r="E43">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="F43">
         <v>0.38712948871243702</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.79895567568492198</v>
+        <v>7.9192265391900898E-2</v>
       </c>
       <c r="C44">
-        <v>7.1228986297337496E-2</v>
+        <v>2.01338003990881E-2</v>
       </c>
       <c r="D44">
-        <v>0.78837469992091502</v>
+        <v>0.26684690420166202</v>
       </c>
       <c r="E44">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="F44">
         <v>0.81057267226283103</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.105851920780567</v>
+        <v>1.23281829935778E-2</v>
       </c>
       <c r="C45">
-        <v>3.3483628095875698E-2</v>
+        <v>4.4186609473817098E-2</v>
       </c>
       <c r="D45">
-        <v>0.87458417236370201</v>
+        <v>0.84426020770856303</v>
       </c>
       <c r="E45">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="F45">
         <v>0.63917210216412501</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.72985716101643106</v>
+        <v>3.3988675536283E-2</v>
       </c>
       <c r="C46">
-        <v>8.4630439274537006E-2</v>
+        <v>5.3559706098583501E-2</v>
       </c>
       <c r="D46">
-        <v>4.8733459417936699E-2</v>
+        <v>2.77269291927934E-2</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="F46">
         <v>0.39968106943596599</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.54009365716418201</v>
+        <v>9.3154746251644799E-2</v>
       </c>
       <c r="C47">
-        <v>3.7587811711723998E-2</v>
+        <v>3.7550166757093398E-2</v>
       </c>
       <c r="D47">
-        <v>0.487310447578643</v>
+        <v>0.85561165906914805</v>
       </c>
       <c r="E47">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="F47">
         <v>0.44061857832643497</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.236688093316336</v>
+        <v>7.8365815806033398E-2</v>
       </c>
       <c r="C48">
-        <v>5.1734149644109398E-2</v>
+        <v>4.8636498398333998E-2</v>
       </c>
       <c r="D48">
-        <v>0.57012762233875702</v>
+        <v>4.6688503423061203E-2</v>
       </c>
       <c r="E48">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F48">
         <v>0.58267851239009805</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.96072668232184699</v>
+        <v>2.3594580662649099E-2</v>
       </c>
       <c r="C49">
-        <v>9.0600001891937704E-2</v>
+        <v>3.6670361937404E-2</v>
       </c>
       <c r="D49">
-        <v>0.65714857649116099</v>
+        <v>0.86848124211665201</v>
       </c>
       <c r="E49">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="F49">
         <v>0.61223913074116498</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.67087208435996104</v>
+        <v>9.9981650768144206E-2</v>
       </c>
       <c r="C50">
-        <v>8.96226984075255E-2</v>
+        <v>8.4584458726234005E-2</v>
       </c>
       <c r="D50">
-        <v>0.69951183978339204</v>
+        <v>0.29708844962487402</v>
       </c>
       <c r="E50">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="F50">
         <v>0.67987972086624404</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.42934392104920599</v>
+        <v>4.0287237662718399E-3</v>
       </c>
       <c r="C51">
-        <v>5.6051739399354102E-2</v>
+        <v>3.9121675375800101E-2</v>
       </c>
       <c r="D51">
-        <v>0.61874164951438404</v>
+        <v>0.40915731516653397</v>
       </c>
       <c r="E51">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F51">
         <v>0.55408433616085595</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.97480491875813502</v>
+        <v>4.3598168665851297E-2</v>
       </c>
       <c r="C52">
-        <v>4.71661570940234E-2</v>
+        <v>7.7874756947851301E-2</v>
       </c>
       <c r="D52">
-        <v>0.71771575795723896</v>
+        <v>0.73455314123510496</v>
       </c>
       <c r="E52">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F52">
         <v>0.34241101465532597</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.72059107196708505</v>
+        <v>4.0237082494153399E-2</v>
       </c>
       <c r="C53">
-        <v>7.6261228110019993E-2</v>
+        <v>5.0286793651371002E-2</v>
       </c>
       <c r="D53">
-        <v>0.37659674716060099</v>
+        <v>0.77131617135543695</v>
       </c>
       <c r="E53">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="F53">
         <v>0.51486043940628501</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.46880755562805299</v>
+        <v>3.9804510195853397E-2</v>
       </c>
       <c r="C54">
-        <v>9.6130858198821501E-2</v>
+        <v>7.9462842519930299E-2</v>
       </c>
       <c r="D54">
-        <v>0.56163873736740499</v>
+        <v>0.25346790528528101</v>
       </c>
       <c r="E54">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="F54">
         <v>0.26944839246962898</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.86431637377813197</v>
+        <v>4.6777946204099898E-3</v>
       </c>
       <c r="C55">
-        <v>9.3680680970625402E-2</v>
+        <v>9.6627957372307602E-2</v>
       </c>
       <c r="D55">
-        <v>8.5523653607740904E-2</v>
+        <v>0.55624773323315302</v>
       </c>
       <c r="E55">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="F55">
         <v>0.59114334233817101</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.57832070826031401</v>
+        <v>4.18757174152974E-2</v>
       </c>
       <c r="C56">
-        <v>7.3459332049685994E-2</v>
+        <v>5.4918308423854797E-2</v>
       </c>
       <c r="D56">
-        <v>6.3214398178727899E-2</v>
+        <v>0.81854027817620101</v>
       </c>
       <c r="E56">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F56">
         <v>0.59049747330951396</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.58580067045408701</v>
+        <v>6.5668444042110502E-2</v>
       </c>
       <c r="C57">
-        <v>4.9855318353739797E-2</v>
+        <v>9.1805487742975506E-2</v>
       </c>
       <c r="D57">
-        <v>0.88948169250071096</v>
+        <v>0.87920990060950299</v>
       </c>
       <c r="E57">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="F57">
         <v>0.52339333005843802</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.77350438379180197</v>
+        <v>9.78732737458827E-2</v>
       </c>
       <c r="C58">
-        <v>8.8389504649649397E-2</v>
+        <v>2.9071962311581601E-2</v>
       </c>
       <c r="D58">
-        <v>0.30120276783523098</v>
+        <v>0.110767628218277</v>
       </c>
       <c r="E58">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="F58">
         <v>0.35558343704012502</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.32911522406181998</v>
+        <v>2.14772953269779E-2</v>
       </c>
       <c r="C59">
-        <v>6.3731966855750305E-2</v>
+        <v>8.9416928185292593E-2</v>
       </c>
       <c r="D59">
-        <v>0.58228620258531505</v>
+        <v>0.219198054574822</v>
       </c>
       <c r="E59">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59">
         <v>0.69471368391307797</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.27602236829190102</v>
+        <v>3.55600855225532E-2</v>
       </c>
       <c r="C60">
-        <v>9.2986472099282999E-2</v>
+        <v>1.50757317571936E-2</v>
       </c>
       <c r="D60">
-        <v>0.86397434191120703</v>
+        <v>0.60976322900634305</v>
       </c>
       <c r="E60">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="F60">
         <v>0.653640674175062</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.63709646637442197</v>
+        <v>2.7516943638823701E-2</v>
       </c>
       <c r="C61">
-        <v>1.6264943671439099E-2</v>
+        <v>4.7412027592796897E-2</v>
       </c>
       <c r="D61">
-        <v>0.17993666901215299</v>
+        <v>5.74884293546533E-2</v>
       </c>
       <c r="E61">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="F61">
         <v>0.387919857938754</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.91521543233732605</v>
+        <v>2.9094889261139598E-2</v>
       </c>
       <c r="C62">
-        <v>6.9131738687013902E-2</v>
+        <v>1.02657678144126E-2</v>
       </c>
       <c r="D62">
-        <v>0.19427485007802101</v>
+        <v>8.2559624451224806E-2</v>
       </c>
       <c r="E62">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="F62">
         <v>0.29676720713791499</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.407441860703043</v>
+        <v>1.77308235790305E-2</v>
       </c>
       <c r="C63">
-        <v>8.2350897655666194E-2</v>
+        <v>8.6663267296628294E-2</v>
       </c>
       <c r="D63">
-        <v>0.34136683238701498</v>
+        <v>0.381884202161551</v>
       </c>
       <c r="E63">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="F63">
         <v>0.65604562519607201</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.18241115294647101</v>
+        <v>7.2618192787860501E-4</v>
       </c>
       <c r="C64">
-        <v>3.0116135972213E-2</v>
+        <v>2.1787358235944399E-2</v>
       </c>
       <c r="D64">
-        <v>0.81324462616677495</v>
+        <v>0.701021770989117</v>
       </c>
       <c r="E64">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="F64">
         <v>0.5961538818955</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.451487053062753</v>
+        <v>4.4908577322825903E-2</v>
       </c>
       <c r="C65">
-        <v>5.0139426640733703E-2</v>
+        <v>2.0602212712956001E-2</v>
       </c>
       <c r="D65">
-        <v>0.402436826306592</v>
+        <v>0.89098721747453002</v>
       </c>
       <c r="E65">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="F65">
         <v>0.50573251138171305</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.30422013679517101</v>
+        <v>2.6540911998698302E-2</v>
       </c>
       <c r="C66">
-        <v>3.1295727175040297E-2</v>
+        <v>2.3343318874949101E-2</v>
       </c>
       <c r="D66">
-        <v>0.26002592159195198</v>
+        <v>1.52837923044984E-2</v>
       </c>
       <c r="E66">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="F66">
         <v>0.54067723276269197</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.37774109358614</v>
+        <v>8.5606811687986298E-2</v>
       </c>
       <c r="C67">
-        <v>4.8010143851235698E-2</v>
+        <v>7.3779023053194004E-2</v>
       </c>
       <c r="D67">
-        <v>0.140261497711022</v>
+        <v>0.436950042804366</v>
       </c>
       <c r="E67">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="F67">
         <v>0.60982573871420698</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.83204981236303799</v>
+        <v>5.1018346293153501E-2</v>
       </c>
       <c r="C68">
-        <v>5.75081544823988E-2</v>
+        <v>2.6252356906706902E-2</v>
       </c>
       <c r="D68">
-        <v>0.43178399228891801</v>
+        <v>0.73177960866370595</v>
       </c>
       <c r="E68">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="F68">
         <v>0.43153333174319602</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.38578498423221902</v>
+        <v>8.9199172980259894E-2</v>
       </c>
       <c r="C69">
-        <v>7.0364758983760795E-2</v>
+        <v>3.43143325502814E-2</v>
       </c>
       <c r="D69">
-        <v>0.39119039505730202</v>
+        <v>0.78891207536942798</v>
       </c>
       <c r="E69">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="F69">
         <v>0.73288611705875895</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.35768597457067702</v>
+        <v>9.4810042664321595E-2</v>
       </c>
       <c r="C70">
-        <v>1.75971569173261E-2</v>
+        <v>8.2846415281034702E-2</v>
       </c>
       <c r="D70">
-        <v>0.104613816625896</v>
+        <v>0.68470143241112202</v>
       </c>
       <c r="E70">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="F70">
         <v>0.555140705366447</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.320934403505927</v>
+        <v>6.1531310312196802E-2</v>
       </c>
       <c r="C71">
-        <v>7.2236238102429004E-2</v>
+        <v>5.1723137807627703E-2</v>
       </c>
       <c r="D71">
-        <v>0.45261793823188801</v>
+        <v>0.74604035587862205</v>
       </c>
       <c r="E71">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="F71">
         <v>0.37957619532424403</v>
